--- a/documents/latency_test.xlsx
+++ b/documents/latency_test.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Node1</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>ping</t>
+  </si>
+  <si>
+    <t>node1</t>
+  </si>
+  <si>
+    <t>node2</t>
+  </si>
+  <si>
+    <t>node3</t>
   </si>
 </sst>
 </file>
@@ -134,6 +143,1180 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compared</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>  Latencies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Anonychat RTT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13.561035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.787841999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.983886999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9289550000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.49292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.164061999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.879149999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.97583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.126953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.251220999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7458499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.463867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Direct RTT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Adjusted RTT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0610350000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2878419999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4838869999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5710449999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9929199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6640619999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3791499999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4758300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6269530000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7512209999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.7541500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9638670000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="426254128"/>
+        <c:axId val="426265104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426254128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426265104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426265104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426254128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,12 +1605,13 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +1633,17 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13.561035</v>
       </c>
@@ -469,8 +1662,20 @@
       <c r="H2">
         <v>3.41</v>
       </c>
+      <c r="J2">
+        <f>A2 - 8.5</f>
+        <v>5.0610350000000004</v>
+      </c>
+      <c r="K2">
+        <f>B2 - 8.5</f>
+        <v>-0.33593800000000051</v>
+      </c>
+      <c r="L2">
+        <f>C2 - 8.5</f>
+        <v>32.861083999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12.787841999999999</v>
       </c>
@@ -489,8 +1694,20 @@
       <c r="H3">
         <v>2.02</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:L13" si="0">A3 - 8.5</f>
+        <v>4.2878419999999995</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>-1.4162600000000003</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>22.985106999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13.983886999999999</v>
       </c>
@@ -509,8 +1726,20 @@
       <c r="H4">
         <v>1.73</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>5.4838869999999993</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>4.5136719999999997</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>32.200927999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.9289550000000002</v>
       </c>
@@ -529,8 +1758,20 @@
       <c r="H5">
         <v>1.72</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-0.5710449999999998</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>5.4360350000000004</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>22.506104000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10.49292</v>
       </c>
@@ -549,8 +1790,20 @@
       <c r="H6">
         <v>1.73</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.9929199999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-1.9501949999999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>23.727051000000003</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10.164061999999999</v>
       </c>
@@ -569,8 +1822,20 @@
       <c r="H7">
         <v>1.78</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.6640619999999995</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>4.1259770000000007</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>20.437988000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10.879149999999999</v>
       </c>
@@ -589,8 +1854,20 @@
       <c r="H8">
         <v>1.74</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>2.3791499999999992</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>6.0300290000000007</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>29.448974999999997</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13.97583</v>
       </c>
@@ -609,8 +1886,20 @@
       <c r="H9">
         <v>1.28</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>5.4758300000000002</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-1.1118160000000001</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>19.444092000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13.126953</v>
       </c>
@@ -629,8 +1918,20 @@
       <c r="H10">
         <v>1.27</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>4.6269530000000003</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-0.45507800000000032</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>29.494872999999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13.251220999999999</v>
       </c>
@@ -649,8 +1950,20 @@
       <c r="H11">
         <v>1.34</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>4.7512209999999993</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>4.4370119999999993</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>102.969971</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.7458499999999999</v>
       </c>
@@ -669,8 +1982,20 @@
       <c r="H12">
         <v>1.29</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-2.7541500000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>-2.3959960000000002</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>37.037109000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11.463867</v>
       </c>
@@ -688,6 +2013,28 @@
       </c>
       <c r="H13">
         <v>1.58</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>2.9638670000000005</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>-1.7539059999999997</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>24.972168000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>AVERAGE(F2:F13)</f>
+        <v>1.3052499999999998</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(J2:J13)</f>
+        <v>2.9467976666666664</v>
       </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
@@ -770,5 +2117,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>